--- a/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidlogistic_2/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.033</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.137</v>
+        <v>18.266</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.227</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.429</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.187</v>
+        <v>0.719</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.813</v>
+        <v>14.593</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.3969542111129</v>
+        <v>-8.515671530421599</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>30.0005514500488</v>
+        <v>10.23603855800245</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.17342281793154</v>
+        <v>22.44690390410813</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34.87182091595376</v>
+        <v>28.48511398870153</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.34333569206245</v>
+        <v>-4.69122280347797</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>31.97921031627907</v>
+        <v>13.74620200926587</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.39611087535199</v>
+        <v>0.6831019861715966</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.99972668132948</v>
+        <v>22.78312659252065</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>33.17257970940516</v>
+        <v>41.58145063202848</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.87098510602437</v>
+        <v>46.07424115449263</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.34249286401638</v>
+        <v>8.770651003757148</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.97838613186648</v>
+        <v>30.65096855541221</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.39720299058076</v>
+        <v>-1.968306092770828</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.00080240433518</v>
+        <v>20.9184359328945</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.17367122342391</v>
+        <v>40.62758218444733</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>34.87207094015241</v>
+        <v>45.08862749448683</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.34358643863218</v>
+        <v>6.4456868167759</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.97946323578903</v>
+        <v>29.12870082710985</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.39823568317826</v>
+        <v>-2.1018861515685</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>30.00185135252131</v>
+        <v>18.77545467923498</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.1747577208031</v>
+        <v>33.16480993474202</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.87315913830666</v>
+        <v>39.32640441284489</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.34463018189291</v>
+        <v>3.2455116959115</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31.98052332827719</v>
+        <v>23.85330925909872</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35.17552141751509</v>
+        <v>24.0771483142871</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.90021135951137</v>
+        <v>34.90489554612201</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>32.90985453884238</v>
+        <v>-2.771303082606245</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>39.46780438829324</v>
+        <v>19.66015893639187</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.77722345976601</v>
+        <v>35.98798522380273</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>44.49182658195422</v>
+        <v>47.22735607676823</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35.17467878802632</v>
+        <v>47.54912834391547</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.89937612892422</v>
+        <v>56.84485078165592</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>32.90905282409893</v>
+        <v>14.65739317598627</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>39.46702112738041</v>
+        <v>40.5206894813906</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>42.77642245328798</v>
+        <v>63.64104400862097</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.49103293010863</v>
+        <v>73.27759604477232</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.17577175598598</v>
+        <v>46.8651793062798</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.90046333606456</v>
+        <v>56.14318356495727</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32.91011179954717</v>
+        <v>13.94911761936094</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>39.46806381161562</v>
+        <v>40.60686008333704</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>42.77748042909945</v>
+        <v>64.61693114050868</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>44.49208515827991</v>
+        <v>74.21078837296461</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.17686962951198</v>
+        <v>36.14008817494651</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.90156294680202</v>
+        <v>47.16836018071945</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>32.91115461853557</v>
+        <v>10.4497240670934</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>39.46912275839279</v>
+        <v>35.07726632434249</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42.77857705159428</v>
+        <v>53.54585454058846</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>44.49318350435887</v>
+        <v>64.92881387506216</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.28985955617059</v>
+        <v>6.103851513744228</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.95845650856074</v>
+        <v>28.46405295997684</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.05479229560346</v>
+        <v>39.4913666306569</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.75073280546377</v>
+        <v>43.64403481536026</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.24497345838951</v>
+        <v>2.114591213201319</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.9460891645741</v>
+        <v>24.07964744007124</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20.28900198081288</v>
+        <v>13.40220193555673</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.95761766169393</v>
+        <v>39.10848679446305</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>30.05393487600796</v>
+        <v>56.69105572049389</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.74988266807821</v>
+        <v>59.26870306562337</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.24411640125468</v>
+        <v>13.49395385910525</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.9452509132706</v>
+        <v>38.89967983638894</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>20.29010367334893</v>
+        <v>10.23547898539753</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.95870280439296</v>
+        <v>36.70878757029424</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.05503599498398</v>
+        <v>55.20785295456406</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>31.75097810801753</v>
+        <v>57.75194130800081</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.245219557</v>
+        <v>10.64976878049429</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.94633744006859</v>
+        <v>36.83874801863572</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.29113375500899</v>
+        <v>11.1016579626881</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.95974932129521</v>
+        <v>35.56922847406447</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.05611986290478</v>
+        <v>48.77621288553411</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.75206367568752</v>
+        <v>53.03363902071342</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.24626073907756</v>
+        <v>8.536891695076381</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.94739515155449</v>
+        <v>32.65389426788997</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>32.06670818017318</v>
+        <v>33.36995925787384</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.78877145634571</v>
+        <v>42.05995707156568</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>30.03771073466203</v>
+        <v>3.053280123171643</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.65982744432751</v>
+        <v>28.98893104812907</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.89838298596106</v>
+        <v>44.15086588123918</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>41.6102243630455</v>
+        <v>53.30529201865409</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>32.06585125138656</v>
+        <v>54.72802318724179</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.78792190949724</v>
+        <v>61.85513241889869</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30.0368954263601</v>
+        <v>18.24239007140674</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.65903075069571</v>
+        <v>47.60938850507122</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.89756832333042</v>
+        <v>69.53634949047472</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>41.60941703819179</v>
+        <v>77.05614773435087</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>32.06695382687135</v>
+        <v>53.51112248928489</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>33.78901872548458</v>
+        <v>60.61923171096851</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30.03796348921119</v>
+        <v>16.98288120436997</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.66008236625195</v>
+        <v>47.12518505580886</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.89863540510358</v>
+        <v>69.94882461958089</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>41.61047837377491</v>
+        <v>77.42421766635674</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>32.06804912544786</v>
+        <v>43.90237979739636</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33.79011575981622</v>
+        <v>52.77271004644358</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30.03900434111703</v>
+        <v>14.69630569768892</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.66113952194481</v>
+        <v>42.81025421457301</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.89973005989922</v>
+        <v>60.11760708345983</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.61157474968827</v>
+        <v>69.39447861324888</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>20.28985955617059</v>
+        <v>3.146666114050735</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.95845650856074</v>
+        <v>25.35047293502561</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.05479229560346</v>
+        <v>36.76010575478776</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>31.75073280546377</v>
+        <v>40.57137082485882</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.24497345838951</v>
+        <v>0.9810173179276411</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.9460891645741</v>
+        <v>22.81301578785578</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.28900198081288</v>
+        <v>10.57088785117575</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.95761766169393</v>
+        <v>36.12172269820141</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>30.05393487600796</v>
+        <v>54.09480536533674</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.74988266807821</v>
+        <v>56.32745741409938</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.24411640125468</v>
+        <v>12.48394875853295</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.9452509132706</v>
+        <v>37.75758062691047</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.29010367334893</v>
+        <v>7.453721084160392</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.95870280439296</v>
+        <v>33.77286395408517</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.05503599498398</v>
+        <v>52.6624400237467</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>31.75097810801753</v>
+        <v>54.86187424758948</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.245219557</v>
+        <v>9.684168421341006</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.94633744006859</v>
+        <v>35.74231349938249</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>20.29113375500899</v>
+        <v>8.213253004825983</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.95974932129521</v>
+        <v>32.52608893333874</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.05611986290478</v>
+        <v>46.11939977893307</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.75206367568752</v>
+        <v>50.03295469339817</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.24626073907756</v>
+        <v>7.475141051201152</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.94739515155449</v>
+        <v>31.46095350318924</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>32.06670818017318</v>
+        <v>32.5309357823114</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.78877145634571</v>
+        <v>40.85601492889349</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30.03771073466203</v>
+        <v>2.239279415206124</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.65982744432751</v>
+        <v>28.05122347259423</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.89838298596106</v>
+        <v>43.64977848250155</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.6102243630455</v>
+        <v>52.43874766727166</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.06585125138656</v>
+        <v>54.02204550921743</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>33.78792190949724</v>
+        <v>60.78034193667435</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.0368954263601</v>
+        <v>17.55459837083792</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.65903075069571</v>
+        <v>46.79893465021169</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>39.89756832333042</v>
+        <v>69.17111454162109</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>41.60941703819179</v>
+        <v>76.32156915406644</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.06695382687135</v>
+        <v>52.85082737927024</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.78901872548458</v>
+        <v>59.5904077734638</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>30.03796348921119</v>
+        <v>16.33712615516975</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>36.66008236625195</v>
+        <v>46.35802166211634</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.89863540510358</v>
+        <v>69.6268269440735</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>41.61047837377491</v>
+        <v>76.7331698137166</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>32.06804912544786</v>
+        <v>43.14131362182842</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>33.79011575981622</v>
+        <v>51.64392177275246</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>30.03900434111703</v>
+        <v>13.95378564064981</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.66113952194481</v>
+        <v>41.94594889013105</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>39.89973005989922</v>
+        <v>59.69425829786408</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.61157474968827</v>
+        <v>68.60287080118684</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>21.72739716652457</v>
+        <v>-12.97133423283922</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.34907568041696</v>
+        <v>5.276496346684421</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>31.5098981156388</v>
+        <v>17.28470200132586</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.2107046679222</v>
+        <v>22.96571763773006</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.68291140603455</v>
+        <v>-9.669813440402407</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>30.33697788025154</v>
+        <v>8.242998275296298</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>21.72654765039181</v>
+        <v>-4.500862489221404</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.3482447832836</v>
+        <v>17.0816043723793</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.50904879299007</v>
+        <v>35.65996099577811</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>33.20986265197241</v>
+        <v>39.79568267009759</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.68206240901646</v>
+        <v>2.998216882617079</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.33614757912746</v>
+        <v>24.33958626028473</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>21.72764633176847</v>
+        <v>-7.237233814666148</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.34932702515882</v>
+        <v>15.13098657965346</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.51014690233501</v>
+        <v>34.62036546798434</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>33.21095507452188</v>
+        <v>38.72324126114761</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>23.68316254239435</v>
+        <v>0.5817056641119791</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>30.33723119424272</v>
+        <v>22.72481181523209</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>21.72867698143813</v>
+        <v>-6.809574647403004</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.35037397373761</v>
+        <v>13.5571067402149</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>31.51123142735765</v>
+        <v>27.7434236867356</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.21204130520843</v>
+        <v>33.54230458346625</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>23.68420428407788</v>
+        <v>-1.998840073014168</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>30.33828932874901</v>
+        <v>18.07736294938864</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.5213715491648</v>
+        <v>18.44365196408215</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.24854202597899</v>
+        <v>28.88491395696773</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>31.33704940621064</v>
+        <v>-7.461835487716726</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>37.91303353909873</v>
+        <v>14.45784507681393</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.21185295672956</v>
+        <v>30.60447806502363</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.92893758410125</v>
+        <v>41.46171629341109</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>33.52052271710193</v>
+        <v>41.09076793330903</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35.24770060110118</v>
+        <v>50.00002009562463</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>31.33624178577362</v>
+        <v>9.15320164726031</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.91224442456131</v>
+        <v>34.49046291642582</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>41.21104601369727</v>
+        <v>57.41305888843661</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>42.92813800398851</v>
+        <v>66.6673345479835</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>33.52162227279847</v>
+        <v>40.3146472629756</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>35.24879438889837</v>
+        <v>49.2050101336874</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.33730708634651</v>
+        <v>8.3478136618902</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>37.91329338663474</v>
+        <v>34.47850346022013</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>41.21211034105844</v>
+        <v>58.29130310779492</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>42.9291965765936</v>
+        <v>67.50170535365136</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.52271821650017</v>
+        <v>30.23470625469454</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>35.24989207488508</v>
+        <v>40.87049548362044</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>31.33834810726979</v>
+        <v>5.483531844376785</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.91435057831097</v>
+        <v>29.59238910373729</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.2132052406873</v>
+        <v>47.88053739852462</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42.93029320485115</v>
+        <v>58.87531023765818</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.70513486707138</v>
+        <v>2.192006876454172</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>30.30832708755786</v>
+        <v>22.57076877875891</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.47614878528498</v>
+        <v>35.4395105377578</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>35.17341090621096</v>
+        <v>40.87684481836155</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.65927272547963</v>
+        <v>4.563969784995532</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>32.29473095167379</v>
+        <v>24.59116602129659</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>23.70429429129479</v>
+        <v>11.18741473456151</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>30.30750507923992</v>
+        <v>34.92251121225416</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>33.47530847429088</v>
+        <v>54.37375095808085</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>35.17257788504138</v>
+        <v>58.25309114672901</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.65843268368316</v>
+        <v>17.71645112472542</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.2939095539115</v>
+        <v>41.19375598528883</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.70538371709489</v>
+        <v>8.599218158561687</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.30857811131518</v>
+        <v>33.11715970894252</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>33.47639726738299</v>
+        <v>53.48205250043321</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.17366100228882</v>
+        <v>57.32599585738545</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.65952353870341</v>
+        <v>15.44469622585643</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>32.29498393676241</v>
+        <v>39.72089055447137</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>23.70641508025007</v>
+        <v>8.936557505519684</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>30.30962572719923</v>
+        <v>31.44458163479672</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>33.47748236498396</v>
+        <v>46.50218597721666</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.17474780310415</v>
+        <v>52.05057705279076</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.66056596424088</v>
+        <v>12.79377324927323</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.2960427086207</v>
+        <v>34.99459898705194</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.48620962695327</v>
+        <v>35.69671039688343</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.20972871944172</v>
+        <v>45.84635457206205</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.22010730189873</v>
+        <v>4.3179575684021</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>39.77763175742683</v>
+        <v>28.32497856210438</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>43.08227950310804</v>
+        <v>45.35998234111618</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>44.79578084762976</v>
+        <v>55.91766107107212</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.48536982196082</v>
+        <v>58.86288904507239</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>37.20889630442358</v>
+        <v>67.46677088687859</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.21930830931953</v>
+        <v>21.36148900108519</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>39.77685121893808</v>
+        <v>48.80767009555288</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>43.08148125543906</v>
+        <v>72.63077822238141</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>44.79498994597814</v>
+        <v>81.5716883480182</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.48646003813847</v>
+        <v>58.23116821439058</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.22036460852885</v>
+        <v>20.69567141297812</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>39.77789122556446</v>
+        <v>48.93242949664398</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>43.08253652369395</v>
+        <v>73.64812939792508</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>44.79603947054342</v>
+        <v>82.5426423279015</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>35.48755652396795</v>
+        <v>48.06754286655533</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.21107898937377</v>
+        <v>58.40446365976959</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>33.2214061410503</v>
+        <v>17.78433577360678</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>39.77894888306875</v>
+        <v>43.99047869943881</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>43.08363179158489</v>
+        <v>63.17742205301184</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>44.79713646447417</v>
+        <v>73.86552155877047</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.72658561901403</v>
+        <v>5.313000948826016</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.29329579930813</v>
+        <v>28.69308420584681</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.3352890166254</v>
+        <v>40.72747386183212</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.00141992529453</v>
+        <v>44.58650407611903</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>19.68284640876354</v>
+        <v>6.508296207261058</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.2816471592392</v>
+        <v>29.52044770948344</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>17.72573121408501</v>
+        <v>12.32689597746869</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.29245984804053</v>
+        <v>39.02656888914965</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>27.33443464705595</v>
+        <v>57.53574376820139</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.00057270642608</v>
+        <v>59.83487291455563</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>19.68199260581585</v>
+        <v>17.5486138052517</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.280811886413</v>
+        <v>43.97341157938649</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.72682357100307</v>
+        <v>9.338562973404784</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.29353589656494</v>
+        <v>36.79961603487871</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.33552650016631</v>
+        <v>56.2141732904247</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.00165898606675</v>
+        <v>58.47480627230166</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>19.68308632083752</v>
+        <v>14.86692853258249</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.28188921492588</v>
+        <v>42.06926297952585</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>17.7278338957707</v>
+        <v>10.83123636711415</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.29456239336354</v>
+        <v>36.31426590214674</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>27.33658986989163</v>
+        <v>50.51130842038958</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.00272402890523</v>
+        <v>54.45850023301603</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>19.68410765006456</v>
+        <v>13.45510162941225</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.28292680896358</v>
+        <v>38.61453661483682</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.34790993276061</v>
+        <v>39.87162070366968</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.03979990998251</v>
+        <v>48.2596699274221</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.4889408093929</v>
+        <v>5.415959344213519</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>34.01014838518373</v>
+        <v>32.34002913353517</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>37.19241748171176</v>
+        <v>48.45006784463</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>38.87455832765558</v>
+        <v>57.25852619017986</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.34705613962098</v>
+        <v>60.78168062774219</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>31.03895336578084</v>
+        <v>67.62186254939911</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.48812861065193</v>
+        <v>20.20354102256844</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>37.19160580496977</v>
+        <v>73.32043699531434</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.87375385692923</v>
+        <v>80.51013012115446</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.34814934290043</v>
+        <v>59.71083625218066</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>31.0400409163281</v>
+        <v>66.52649953661717</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27.48918737449786</v>
+        <v>19.09505981943316</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>34.01039708500761</v>
+        <v>50.19107645268231</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.19266366023631</v>
+        <v>73.86662850674223</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>38.87480607201245</v>
+        <v>81.0069562102054</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.34922404312849</v>
+        <v>50.9087042254782</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>31.04111732527186</v>
+        <v>59.45913099728767</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>27.49020859263289</v>
+        <v>17.51759650486558</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.01143434568009</v>
+        <v>46.61451677206641</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.19373793839009</v>
+        <v>64.85177050755136</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.87588204555277</v>
+        <v>73.76577973192688</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>17.45664148556146</v>
+        <v>-12.52327283167006</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.02579395230254</v>
+        <v>6.841356235511192</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.07662226653348</v>
+        <v>18.18095683678938</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.74530173130681</v>
+        <v>23.12324235322276</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.40271661838793</v>
+        <v>-5.773687927585698</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.00398995346544</v>
+        <v>13.32937421568121</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>17.45578380167124</v>
+        <v>-5.148562856448287</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.02495472786764</v>
+        <v>17.51280053917396</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.07576457130702</v>
+        <v>35.3369912807689</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.74445120205556</v>
+        <v>38.75004075308789</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>19.40185950005262</v>
+        <v>5.861022014595072</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.00315137109922</v>
+        <v>28.35555927578625</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.45687967079161</v>
+        <v>-8.323967999147211</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.02603428575332</v>
+        <v>15.10788792243174</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>27.07685997635755</v>
+        <v>33.82662222256084</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.74554102515501</v>
+        <v>37.21079181575786</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19.40295676926151</v>
+        <v>3.00836100355566</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.00423225089045</v>
+        <v>26.28930345802076</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>17.45789217663975</v>
+        <v>-7.81067636690673</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.02706297113492</v>
+        <v>13.64688761865638</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>27.07792564019476</v>
+        <v>27.12223790733957</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.74660836079638</v>
+        <v>32.18057820306292</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.40398026640434</v>
+        <v>0.4548758953177519</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.00527202045551</v>
+        <v>21.69608654401783</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.07878019976859</v>
+        <v>22.7793643444455</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>30.77328272601003</v>
+        <v>32.40576475888877</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>27.21212673669149</v>
+        <v>-2.192265229813714</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>33.73580732810706</v>
+        <v>20.85581172413683</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.9264724005851</v>
+        <v>36.2121553868423</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>38.61112279687062</v>
+        <v>46.27090406943755</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.07792304353796</v>
+        <v>44.2695451273577</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>30.77243283425531</v>
+        <v>52.38125808247</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>27.21131129150617</v>
+        <v>13.35817753995526</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.7350102319814</v>
+        <v>39.78750181686691</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.92565743168144</v>
+        <v>61.83270998035081</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.61031504906076</v>
+        <v>70.30627546357515</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.0790198417224</v>
+        <v>43.02586349315294</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>30.77352397104047</v>
+        <v>51.12291574439394</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>27.21237356323095</v>
+        <v>12.10075281114912</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>33.73605629232638</v>
+        <v>39.30861445167447</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.926718834594</v>
+        <v>62.22800177135626</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>38.61137080340202</v>
+        <v>70.66189521324536</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.08009682247053</v>
+        <v>33.06011988305361</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>30.77460265927603</v>
+        <v>42.87858423423936</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>27.21339690153802</v>
+        <v>9.293914939854357</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.73709568064392</v>
+        <v>34.50633501825114</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.92779534288004</v>
+        <v>51.96148674017236</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>38.61244900577036</v>
+        <v>62.15532656465936</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>22.99733278629519</v>
+        <v>-18.401588779578</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.67698135762872</v>
+        <v>1.540850967309897</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.86378019888906</v>
+        <v>14.08655687457703</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>34.57755823097288</v>
+        <v>19.34224682349551</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.98058483853353</v>
+        <v>-16.86345480682576</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>31.69288348521553</v>
+        <v>2.724851590229939</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.99648029517592</v>
+        <v>-10.08615949346567</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.67614765185162</v>
+        <v>13.21286240463072</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>32.86292792947218</v>
+        <v>32.34653399326054</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.57671331543951</v>
+        <v>36.04069007520242</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.97973291232177</v>
+        <v>-4.3942813601784</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>31.6920504219129</v>
+        <v>18.64477910098748</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.99758264023204</v>
+        <v>-12.79232009587439</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.67723340981723</v>
+        <v>11.29073958477612</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.86402965151397</v>
+        <v>31.33919957508571</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.57780930912202</v>
+        <v>34.99867719490116</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.9808366807601</v>
+        <v>-6.782677417947863</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>31.69313752383707</v>
+        <v>17.05654440029761</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>22.99862400552878</v>
+        <v>-12.14359549946483</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.67829121262167</v>
+        <v>9.927268782394762</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>32.86512531563819</v>
+        <v>24.66194411224273</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.57890669902025</v>
+        <v>30.02942627138185</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.98188924735659</v>
+        <v>-9.123920127960901</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>31.69420662255958</v>
+        <v>12.63740730052642</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>34.90380751112791</v>
+        <v>13.51048593321375</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.64409466425939</v>
+        <v>23.47616355947764</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>32.68110337979467</v>
+        <v>-16.20400102779869</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>39.31457973036808</v>
+        <v>7.378072494405309</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.6407298301482</v>
+        <v>24.09511884905347</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>44.37089919320807</v>
+        <v>34.48951671257294</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>34.90295577870279</v>
+        <v>35.99904138418144</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.64325038677644</v>
+        <v>44.4157014616096</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>32.68029310799092</v>
+        <v>0.1693281323190341</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>39.31378812982199</v>
+        <v>27.19136733428373</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>42.63992026734179</v>
+        <v>50.70236147190516</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>44.37009704097073</v>
+        <v>59.47660315267825</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.90405891755724</v>
+        <v>35.25277883629988</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.64434771568496</v>
+        <v>43.64879413764618</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>32.68136182880391</v>
+        <v>-0.6106781334814464</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>39.31484036556491</v>
+        <v>27.20323631116412</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>42.64098796079313</v>
+        <v>51.60785762514163</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>44.37115893761258</v>
+        <v>60.3364375884282</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>34.90516611334144</v>
+        <v>25.38971829577896</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.64545667402923</v>
+        <v>35.54360854664485</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>32.68241365216618</v>
+        <v>-3.206446021344888</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>39.31590849675463</v>
+        <v>22.57439364225034</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>42.64209408770095</v>
+        <v>41.44310555746366</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>44.37226681330408</v>
+        <v>51.96876878627694</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>20.62087677536843</v>
+        <v>11.5074125575918</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.23751505778565</v>
+        <v>35.14109684666154</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.33410009420075</v>
+        <v>47.55926931035509</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.01577710585195</v>
+        <v>51.37981689633712</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.57459390240264</v>
+        <v>7.541371647602215</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.22353684557991</v>
+        <v>30.81041742874778</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.6200245403255</v>
+        <v>19.17463054435784</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.23668142188947</v>
+        <v>46.14653844512254</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>30.33324798950014</v>
+        <v>65.08484807072762</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.01493221630859</v>
+        <v>67.33832559842494</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.57374222934225</v>
+        <v>19.29768302822474</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.22270384858248</v>
+        <v>45.99922503763869</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>20.62111766037414</v>
+        <v>16.21782044288794</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.23775811004569</v>
+        <v>43.9558540956305</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.33434052545924</v>
+        <v>63.80075254864589</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>32.01601912653321</v>
+        <v>66.01868688651091</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.574836764448</v>
+        <v>16.67587803887717</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.22378187318157</v>
+        <v>44.15983058049062</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>20.62214252376489</v>
+        <v>17.07546431647356</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>27.23879926345526</v>
+        <v>42.82586233789306</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.33541891186634</v>
+        <v>57.41582162273401</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>32.01709920383804</v>
+        <v>61.33042459535211</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.57587266782328</v>
+        <v>14.55955373069161</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.22483416002924</v>
+        <v>39.99017784221873</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>32.34431894663874</v>
+        <v>41.36447051067616</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.05194675052444</v>
+        <v>49.73635354130549</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>30.32646955836511</v>
+        <v>7.710061217588297</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.89718157196342</v>
+        <v>34.91040567255982</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>40.13380148870449</v>
+        <v>51.30390557373197</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>41.83144705825863</v>
+        <v>60.09790177133443</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>32.34346737735309</v>
+        <v>63.05361240886471</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.05110249541457</v>
+        <v>69.87056705831678</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>30.32565948521525</v>
+        <v>23.25170408876298</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.89638998580267</v>
+        <v>53.87451246514264</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.13299203274818</v>
+        <v>76.99215418911582</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>41.83064487290386</v>
+        <v>84.1601821962275</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.34456132118847</v>
+        <v>62.0486685091404</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>34.05219073360738</v>
+        <v>68.84420273094366</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.32671908743562</v>
+        <v>22.20891834421155</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.8974332573253</v>
+        <v>53.60614833911272</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>40.13405064659769</v>
+        <v>77.6101955924548</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>41.83169779401102</v>
+        <v>84.73171165144953</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>32.34565107534819</v>
+        <v>52.49417074120939</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>34.05328221449754</v>
+        <v>61.03492561861952</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.32775459848418</v>
+        <v>19.91964839560149</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.89848492820688</v>
+        <v>49.3073735532101</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>40.13513969174888</v>
+        <v>67.83634119144038</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>41.83278855198012</v>
+        <v>76.74180479921769</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>16.43497353206966</v>
+        <v>-16.15067675431877</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>23.04131137693737</v>
+        <v>2.278016738879909</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.07685329344367</v>
+        <v>12.26441639912326</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.75653642085838</v>
+        <v>17.70323953648314</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.37708278666965</v>
+        <v>-12.14495357474728</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.01567612940316</v>
+        <v>5.976814049281888</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>16.43410882720408</v>
+        <v>-8.226039727782165</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.04046521021174</v>
+        <v>13.48150612800418</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.07598854408939</v>
+        <v>29.92144173069715</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>27.75567889607508</v>
+        <v>33.83557396873908</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>18.37621859157863</v>
+        <v>-0.01890234074528152</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.01483054918203</v>
+        <v>21.47610729011904</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.43521373340572</v>
+        <v>-11.42958993541867</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>23.04155372958145</v>
+        <v>11.03856685666479</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.07709304432592</v>
+        <v>28.37517812330706</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.75677777044152</v>
+        <v>32.26283583539237</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.37732495118704</v>
+        <v>-2.912153392243923</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.01592044348188</v>
+        <v>19.35922543509114</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>16.4362290191088</v>
+        <v>-11.77039889304314</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.04258531279919</v>
+        <v>8.716505887719702</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.07816164545494</v>
+        <v>20.82563361508152</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.75784804341204</v>
+        <v>26.39420580707075</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.37835126997842</v>
+        <v>-6.318991819586522</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.01696315318177</v>
+        <v>13.905318483229</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.07518806892004</v>
+        <v>14.2131890898069</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.78080831436591</v>
+        <v>24.24484430155701</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.22265091360793</v>
+        <v>-9.243419461987656</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>32.78299996913298</v>
+        <v>12.77392209552373</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.96021241966891</v>
+        <v>26.8579993888784</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>37.65578970875935</v>
+        <v>37.38492170687755</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.0743238016812</v>
+        <v>36.14770741202307</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.77995137076107</v>
+        <v>44.66853925920663</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.22182851214582</v>
+        <v>6.756289305464367</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>32.78219599408749</v>
+        <v>32.13708914117855</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.95939046426367</v>
+        <v>52.88085296365861</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>37.65497503305882</v>
+        <v>61.82734686569623</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.07542974906089</v>
+        <v>34.85566931692341</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.78105161244224</v>
+        <v>43.3646592895593</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.22289974358901</v>
+        <v>5.442441810695648</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>32.78325093970169</v>
+        <v>31.5918647305056</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.96046088191948</v>
+        <v>53.21199929719039</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>37.65603975825754</v>
+        <v>62.12177848085422</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.0765097107952</v>
+        <v>24.0445603485282</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.78213328171762</v>
+        <v>34.2820486068528</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.22392596997989</v>
+        <v>1.782203699277702</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>32.78429333269987</v>
+        <v>25.92811463737907</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.96154043991775</v>
+        <v>42.0987622483221</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>37.65712100987983</v>
+        <v>52.77534335960574</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.17553643396676</v>
+        <v>3.553869589633564</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.81324624182675</v>
+        <v>25.25254221201401</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>27.87116714965841</v>
+        <v>36.23186388105968</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.5575766047369</v>
+        <v>40.10113692297999</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>20.135933134003</v>
+        <v>5.175428313795052</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.80603428886115</v>
+        <v>26.50162600726992</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>18.17467679718701</v>
+        <v>10.52361569598449</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.81240524282486</v>
+        <v>35.53634509985852</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.87030759961295</v>
+        <v>53.01152837164251</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.55672429693583</v>
+        <v>55.31639188465819</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>20.13507404926408</v>
+        <v>16.1553233728824</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.80519391897647</v>
+        <v>40.88879696886889</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>18.17577876242744</v>
+        <v>7.375454418674682</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.81349073466833</v>
+        <v>33.14861937172908</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>27.87140905017467</v>
+        <v>51.53465751214597</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.55782010083619</v>
+        <v>53.80481946853837</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>20.136177432345</v>
+        <v>13.30099342264966</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.80628074983913</v>
+        <v>38.81090338588371</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>18.17679887294585</v>
+        <v>8.511584778122145</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.81452720814503</v>
+        <v>32.29534035449027</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>27.87248263661455</v>
+        <v>45.4392667870991</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.5588953766256</v>
+        <v>49.40781159875496</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.13720863160181</v>
+        <v>11.5340650459825</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.80732840581128</v>
+        <v>34.98946396493432</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.88833587822893</v>
+        <v>35.94357873213909</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.60075575087075</v>
+        <v>44.28055209713203</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.97539951888491</v>
+        <v>5.521317017349112</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>34.56690373499877</v>
+        <v>30.79368341581425</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>37.76743603609339</v>
+        <v>46.02977216833105</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.46979707032566</v>
+        <v>54.8304198273231</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.88747685355747</v>
+        <v>56.81155176774563</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>31.59990406769599</v>
+        <v>63.5957856907775</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>27.97458221194726</v>
+        <v>20.26531426973299</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>34.56610495308263</v>
+        <v>48.93576680929169</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>37.76661930598942</v>
+        <v>70.87824452795095</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.46898763800399</v>
+        <v>78.05489866654969</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.88857971465275</v>
+        <v>55.57252266125904</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.6010012020589</v>
+        <v>62.3364153494763</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>27.97565046313911</v>
+        <v>18.97987483860035</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>34.56715683263159</v>
+        <v>48.41881603524155</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>37.76768663425282</v>
+        <v>71.25240926386914</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>39.47004925259957</v>
+        <v>78.3836270412951</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.8896647191892</v>
+        <v>46.37772154442014</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>31.60208793183272</v>
+        <v>54.88840357158944</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>27.9766815497298</v>
+        <v>17.04447569868582</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.56820415113344</v>
+        <v>44.47218134301467</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.76877121689308</v>
+        <v>61.83996327608334</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>39.47113554625324</v>
+        <v>70.75715423145961</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>17.66660288701594</v>
+        <v>-14.32445752336588</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.28170368139658</v>
+        <v>4.869014495204109</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.32892961665898</v>
+        <v>14.82825352873044</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.00888542563488</v>
+        <v>19.07578273737009</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>19.60083106722463</v>
+        <v>-14.66834656874266</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.24822798591127</v>
+        <v>4.177086570894836</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>17.66574336151588</v>
+        <v>-7.966112822019603</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.28086273094846</v>
+        <v>14.5062153498563</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.32807015198089</v>
+        <v>30.93168982979636</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.00803317820098</v>
+        <v>33.64093933710422</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>19.59997203570603</v>
+        <v>-4.230781365558872</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.24738760629377</v>
+        <v>17.98714818526468</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.66684425989927</v>
+        <v>-11.31313738297317</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.28194721346567</v>
+        <v>11.92204973455205</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.32917056252291</v>
+        <v>29.25055808722809</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.0091279631954</v>
+        <v>31.93022221431585</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.60107440808915</v>
+        <v>-7.262446304967192</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.24847348422396</v>
+        <v>15.73429401116295</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.66786097886263</v>
+        <v>-10.21437231994107</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.28298023926455</v>
+        <v>11.05033583853729</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.33024060273133</v>
+        <v>23.15291964791951</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.01019968395579</v>
+        <v>27.51116572820255</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.6021021357673</v>
+        <v>-9.112908958373762</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.24951761222129</v>
+        <v>11.848243678324</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.3193683809422</v>
+        <v>12.38915000831675</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>31.02525964891454</v>
+        <v>21.18013449794748</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.426959635378</v>
+        <v>-10.23356038606342</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>33.99606218338679</v>
+        <v>12.58443614344638</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>37.18538565270644</v>
+        <v>26.6216580778818</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>38.88110421904905</v>
+        <v>35.87747734803399</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.31850938255874</v>
+        <v>32.64789406073133</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>31.02440796672177</v>
+        <v>39.9140006287612</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>27.42614229725362</v>
+        <v>4.05199059240924</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>33.99526330815169</v>
+        <v>30.23327767193898</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>37.1845688645701</v>
+        <v>50.94514190880034</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>38.88029470309706</v>
+        <v>58.60498738739636</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.31961126101041</v>
+        <v>31.22670614965404</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>31.02550413980284</v>
+        <v>38.47759563321817</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.42720962235193</v>
+        <v>2.594002481131337</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.99631431862021</v>
+        <v>29.54625609863874</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>37.18563529514144</v>
+        <v>51.1419588020098</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>38.88135544162776</v>
+        <v>58.76134234735569</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.32069263739854</v>
+        <v>21.98522377113373</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>31.02658723254965</v>
+        <v>30.96187388231139</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>27.42823725661471</v>
+        <v>0.5384868502406306</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>33.99735812916099</v>
+        <v>25.49880293789967</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.18671627018995</v>
+        <v>41.64645188057916</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>38.88243811851869</v>
+        <v>51.03040199388803</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>15.32947539601155</v>
+        <v>-24.25875516546745</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.91039959553249</v>
+        <v>-6.169976747781263</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.91546578871217</v>
+        <v>3.366566283130066</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.58479911067284</v>
+        <v>7.533607488604925</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.26787477915326</v>
+        <v>-22.14415218869641</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.88095413985465</v>
+        <v>-4.407177089883966</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>15.32861350533239</v>
+        <v>-18.56663103297593</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>21.90955617945908</v>
+        <v>2.760326806367846</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.91460388258038</v>
+        <v>18.69315442212857</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.58394437751905</v>
+        <v>21.33577055014819</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.26701341527323</v>
+        <v>-12.44021517515163</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.88011132713517</v>
+        <v>8.627121923964836</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.32971477050383</v>
+        <v>-21.96736414710896</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.91064111352035</v>
+        <v>0.1152115029404044</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.91570472522504</v>
+        <v>16.94324909512708</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.58503963058539</v>
+        <v>19.55577089270711</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>17.26811610916779</v>
+        <v>-15.54363836360642</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>23.88119761165524</v>
+        <v>6.295029809674414</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>15.33072055685016</v>
+        <v>-20.43176258915564</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.91166312681545</v>
+        <v>-0.2994954393542919</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.91676349127825</v>
+        <v>11.35744497404225</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.58610006533662</v>
+        <v>15.63314788659065</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>17.26913288732047</v>
+        <v>-16.89758021493986</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.88223070978927</v>
+        <v>2.926676114185202</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.91001327562912</v>
+        <v>3.530981832937528</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.60515688158577</v>
+        <v>12.18774417754128</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.14476469451115</v>
+        <v>-17.84080138182411</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>31.679994879117</v>
+        <v>3.837716581249872</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>34.82755685048832</v>
+        <v>17.52214777998507</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.51269733588484</v>
+        <v>26.65203590408651</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.90915186936059</v>
+        <v>22.94554541630421</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.60430274671253</v>
+        <v>30.09121336086067</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.14394505588496</v>
+        <v>-4.331501095201638</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.67919360410935</v>
+        <v>20.66827700202989</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>34.82673768578348</v>
+        <v>40.95737848259721</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.51188539903492</v>
+        <v>48.50570241476841</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.91025413405123</v>
+        <v>21.4377858988448</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.60539934243606</v>
+        <v>28.56765057715792</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.14501266099593</v>
+        <v>-5.876356703855315</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.68024497847788</v>
+        <v>19.88693627439916</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.82780446093645</v>
+        <v>41.05218412296664</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.51294651830175</v>
+        <v>48.55973141442257</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.9113242183266</v>
+        <v>12.76964974120146</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.60647113108305</v>
+        <v>21.60931452025736</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.14602958179231</v>
+        <v>-7.429221612310183</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.68127799612117</v>
+        <v>16.36296556580857</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>34.82887438467849</v>
+        <v>32.13581343023672</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.51401813232826</v>
+        <v>41.39180446638295</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.69049959854263</v>
+        <v>-8.435444399009061</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.37127141194738</v>
+        <v>10.17163927366986</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>32.56449438928299</v>
+        <v>22.08378694933236</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.27989814085145</v>
+        <v>27.87687018607553</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.66499602421128</v>
+        <v>-7.127486593671495</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>31.37843611461885</v>
+        <v>11.14699334746464</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.68964408761288</v>
+        <v>0.5724944239617358</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.3704346880619</v>
+        <v>22.53133076407201</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>32.56363905840428</v>
+        <v>41.05067848664144</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>34.27905017503677</v>
+        <v>45.29169861532482</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.66414104793769</v>
+        <v>6.120232358354301</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.37760000298641</v>
+        <v>27.84125723892945</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.6907494810215</v>
+        <v>-2.149287761110735</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.37152349440785</v>
+        <v>20.59762217185447</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>32.56474386398327</v>
+        <v>40.03275020030049</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>34.28014924662531</v>
+        <v>44.24182039729559</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.66524789958606</v>
+        <v>3.731773216693121</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.37869018810839</v>
+        <v>26.2570023208762</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.69179249249434</v>
+        <v>-2.241239396711769</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.37258294796145</v>
+        <v>18.49399493292732</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.56584126084018</v>
+        <v>32.59302361922462</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>34.28124836705801</v>
+        <v>38.5074817709517</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.6663020998502</v>
+        <v>0.5884985708512467</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.37976092514094</v>
+        <v>21.03613684781287</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>34.59553108831412</v>
+        <v>21.16666698374467</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.33748945207673</v>
+        <v>31.73011614619142</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>32.37073588798494</v>
+        <v>-4.200128291742356</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.00535995042405</v>
+        <v>18.09067669668972</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>42.33759584699357</v>
+        <v>34.10428013819596</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.06935404909392</v>
+        <v>45.09173721044829</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>34.59467626335829</v>
+        <v>44.44795354396938</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.33664209343952</v>
+        <v>53.47266836508392</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.36992263412392</v>
+        <v>13.02839915169867</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>39.00456536969271</v>
+        <v>38.7547294103311</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>42.33678326143426</v>
+        <v>61.58147926851913</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>44.06854888511008</v>
+        <v>70.95929631191362</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>34.59578252141083</v>
+        <v>43.70691145840706</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.33774253578477</v>
+        <v>52.71375876360165</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.37099439220314</v>
+        <v>12.25747269638351</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>39.00562064258128</v>
+        <v>38.77971548798206</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>42.33785402721978</v>
+        <v>62.5013560452002</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.06961384855219</v>
+        <v>71.83621195513729</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.59689143702528</v>
+        <v>33.01975155027806</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.33885321180989</v>
+        <v>43.78158401121549</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>32.37204781197856</v>
+        <v>8.81851606370283</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>39.00669037471013</v>
+        <v>33.30838411768993</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.3389618345533</v>
+        <v>51.47162801164292</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>44.07072340245992</v>
+        <v>62.60024725563937</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>18.66780965828218</v>
+        <v>4.604986511560519</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.28211460192905</v>
+        <v>25.01377603394629</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.33028112227016</v>
+        <v>35.52570384856097</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.01315282998633</v>
+        <v>40.09870427459713</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>20.60101171632584</v>
+        <v>1.515690439477577</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.24756754676096</v>
+        <v>21.55038497324147</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>18.6669533657978</v>
+        <v>12.04108771352617</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.28127687065999</v>
+        <v>35.7472777184549</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.32942490859984</v>
+        <v>52.743923456696</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.012303851631</v>
+        <v>55.7661982252976</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>20.60015590816539</v>
+        <v>13.02416525288337</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>27.24673037647858</v>
+        <v>36.44991687781221</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>18.6680516006018</v>
+        <v>8.810460323626234</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.28235869975208</v>
+        <v>33.27516399974605</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.33052265000505</v>
+        <v>51.17666758728396</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.01339595384754</v>
+        <v>54.16900789868841</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>20.60125561922338</v>
+        <v>10.11111539893323</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>27.24781360338008</v>
+        <v>34.31122139815492</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>18.66907030235553</v>
+        <v>9.202644377081857</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.28339371814209</v>
+        <v>31.6810709704037</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.3315946527889</v>
+        <v>44.33771097828843</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.01446963442297</v>
+        <v>49.02638138139358</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>20.60228533100919</v>
+        <v>7.522612906644426</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.24885972523938</v>
+        <v>29.67079083803688</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>30.3197112787106</v>
+        <v>30.35265958154453</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>32.02850439315863</v>
+        <v>39.42135929992379</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.36595236659258</v>
+        <v>2.743713062934518</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.9340704116682</v>
+        <v>26.69913662980175</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>38.12399030152103</v>
+        <v>41.32370710272636</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>39.82260483114312</v>
+        <v>50.88547254967655</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>30.31885552154043</v>
+        <v>51.72085628061197</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>32.02765597033528</v>
+        <v>59.25122830001904</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.36513805599863</v>
+        <v>18.05555527614777</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.93327454941328</v>
+        <v>45.39292569890394</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>38.12317655747063</v>
+        <v>66.71095027922648</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>39.82179837738769</v>
+        <v>74.66383223249535</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.31995473304741</v>
+        <v>50.41561608181216</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>32.02874946281607</v>
+        <v>57.93067790637969</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.36620287706036</v>
+        <v>16.7132698024937</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>34.93432306653331</v>
+        <v>44.8171802180663</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.12424047930721</v>
+        <v>67.02069858648068</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.82285659360731</v>
+        <v>74.93314788470398</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.32103807350747</v>
+        <v>40.39938332632313</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.02983451671641</v>
+        <v>49.65903232347736</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.36723236079184</v>
+        <v>13.92101212059246</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>34.93536873607536</v>
+        <v>40.01600132473337</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.12532328223747</v>
+        <v>56.752099143503</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.8239410954678</v>
+        <v>66.44783726390814</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.25225037801632</v>
+        <v>3.426518356988044</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>30.86735720704994</v>
+        <v>24.50646874177267</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.04400772364798</v>
+        <v>37.23548567509735</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>35.74288674769426</v>
+        <v>42.65756198894678</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.19727486897296</v>
+        <v>1.955500099419076</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.84468353672978</v>
+        <v>22.6709881562071</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.25140947466797</v>
+        <v>12.70005585861308</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.86653490244676</v>
+        <v>37.16124111265839</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>34.04316710755119</v>
+        <v>56.51824591386419</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>35.74205343065867</v>
+        <v>60.36981684298034</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.19643447028683</v>
+        <v>15.42424870171241</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>32.84386181343807</v>
+        <v>39.61576182996333</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.25249916989486</v>
+        <v>10.11514973228104</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>30.86760817612002</v>
+        <v>35.3632795698433</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>34.04425615019261</v>
+        <v>55.64023625577478</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>35.74313678992352</v>
+        <v>59.45670949741879</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.19752562921375</v>
+        <v>13.17358735844464</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.84493647229677</v>
+        <v>38.16828466224103</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.2535339458266</v>
+        <v>10.19629714068768</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.86865923631538</v>
+        <v>33.42158651842662</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>34.04534474917416</v>
+        <v>48.35421084841973</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>35.74422709107333</v>
+        <v>53.8885364410167</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.1985714516574</v>
+        <v>10.22145332690125</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.84599867271574</v>
+        <v>33.12708506648589</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.04490307778595</v>
+        <v>33.52083630859995</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>37.77003671779326</v>
+        <v>43.68007719398516</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.74620199430356</v>
+        <v>2.297559682199719</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.31548187792546</v>
+        <v>27.01563328982898</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>43.62888607980187</v>
+        <v>43.85044508815901</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>45.34391787512794</v>
+        <v>54.41815315222109</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.04406293801691</v>
+        <v>57.07359469179099</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>37.76920397728523</v>
+        <v>65.67464120724297</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.74540266139189</v>
+        <v>19.6816445056241</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.31470102993703</v>
+        <v>47.86479582751022</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.62808751460122</v>
+        <v>71.53341584649488</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.34312666503605</v>
+        <v>80.4715506846639</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.04515343859637</v>
+        <v>56.47319236418107</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.77028871363432</v>
+        <v>65.05319658461066</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>33.74645926634929</v>
+        <v>19.04523797363219</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>40.31574131492387</v>
+        <v>48.02325112562635</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>43.62914306873748</v>
+        <v>72.59078404959658</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.34417646805161</v>
+        <v>81.48273777928196</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.04625341004088</v>
+        <v>45.95685117222796</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.77139042358142</v>
+        <v>56.30515808665957</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.74750411740217</v>
+        <v>15.83657866708957</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.31680232211892</v>
+        <v>42.77045950463535</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>43.63024174226607</v>
+        <v>61.77138211223638</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>45.345276866247</v>
+        <v>72.47071261295557</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.79556646040399</v>
+        <v>2.981065606704735</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.60459637678712</v>
+        <v>22.37809678141416</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.78737619599625</v>
+        <v>35.15326859664816</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.52455484511582</v>
+        <v>40.76062636349066</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>16.78348990580421</v>
+        <v>4.064166936430638</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>23.62578929662992</v>
+        <v>23.11474785808221</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>14.79467222757827</v>
+        <v>12.16510863399283</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>21.60372125342376</v>
+        <v>34.89507640075441</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.78648202208047</v>
+        <v>54.2299468405035</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.52366816993896</v>
+        <v>58.29218833979628</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>16.78259614311683</v>
+        <v>17.40884764248737</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.62491472232975</v>
+        <v>39.88551238068125</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>14.79582038487251</v>
+        <v>9.611932411858071</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>21.60485252115602</v>
+        <v>33.12346230480569</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.78762975116747</v>
+        <v>53.3668415686229</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.52481007365322</v>
+        <v>57.395425699482</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.78374585241044</v>
+        <v>15.17913969907161</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>23.62604746127514</v>
+        <v>38.45321501546972</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>14.79686575177942</v>
+        <v>9.703220178280219</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.60591468470139</v>
+        <v>31.21808695912166</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.78873029901337</v>
+        <v>46.17245841184922</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.52591232782705</v>
+        <v>51.89434521652045</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.78480257068999</v>
+        <v>12.27849767770303</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.62712107276426</v>
+        <v>33.49094048640205</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.83261051205651</v>
+        <v>34.06789084820223</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.59675422044889</v>
+        <v>44.40070676705729</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.82031014628111</v>
+        <v>4.491471124408651</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>31.5821675324418</v>
+        <v>27.51676552722568</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.90794224833243</v>
+        <v>44.38941825712679</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.66195452550947</v>
+        <v>55.12471305963645</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.83171677934423</v>
+        <v>57.37905575420828</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.59586808948557</v>
+        <v>66.17935352218883</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.8194594658646</v>
+        <v>21.73763771459732</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>31.58133584506896</v>
+        <v>48.17811254664694</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>34.90709213031275</v>
+        <v>71.81436720848308</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.66111196432831</v>
+        <v>80.94647495359578</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.8328660546441</v>
+        <v>56.78341572119074</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.59701145645306</v>
+        <v>65.56388490448225</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.82057288698189</v>
+        <v>21.10928720649143</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>31.58243248113336</v>
+        <v>48.33889908211827</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.90820470517924</v>
+        <v>72.86287733734638</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.66221864380685</v>
+        <v>81.95035173180787</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.83397828837665</v>
+        <v>46.40301125214555</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.59812543368557</v>
+        <v>56.92653160564724</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.82162918222037</v>
+        <v>17.93151293492178</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.58350544052721</v>
+        <v>43.14409467114741</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>34.90931618428363</v>
+        <v>62.15929440398835</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.66333185300351</v>
+        <v>73.0286507820062</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.77782750342135</v>
+        <v>-1.427807543657138</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>27.43076936627282</v>
+        <v>19.81967561468028</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>30.53841280829798</v>
+        <v>31.27198158300782</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.23855323888289</v>
+        <v>35.94865268610279</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.72237439022594</v>
+        <v>-4.159712739941746</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.40774787971968</v>
+        <v>16.71548587797281</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.77697241285603</v>
+        <v>7.551923081869575</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>27.42993294884</v>
+        <v>32.1662230316144</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>30.53755787553727</v>
+        <v>50.22502589675915</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.23770561823505</v>
+        <v>53.321020106156</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.72151977572465</v>
+        <v>8.961345915235515</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.40691201533695</v>
+        <v>33.29867762792594</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.7780740377034</v>
+        <v>4.681545574458109</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>27.43101807358205</v>
+        <v>30.06999729050276</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>30.53865895937455</v>
+        <v>49.05195617474789</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>32.23880100599091</v>
+        <v>52.11545980607291</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.72262289398307</v>
+        <v>6.413388415748546</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.40799855464632</v>
+        <v>31.54114075107141</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>20.77910467843625</v>
+        <v>4.220402096833642</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>27.4320651233594</v>
+        <v>27.58202429745791</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.53974337204323</v>
+        <v>41.22876654557093</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.23988711254765</v>
+        <v>46.02008879936982</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.72366461743134</v>
+        <v>2.918833883282485</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.40905678120902</v>
+        <v>25.95306209140742</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>32.53932496699324</v>
+        <v>26.43889394806174</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>34.26565847570909</v>
+        <v>35.68595752065539</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.43096071977468</v>
+        <v>-3.578764026057037</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.0374680264572</v>
+        <v>21.2583949658517</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.28596591538147</v>
+        <v>36.90846198306729</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.0020449608612</v>
+        <v>46.64083947263977</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.53847048181138</v>
+        <v>49.61099027417235</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.26481140273609</v>
+        <v>57.28907768666618</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>30.43014759444653</v>
+        <v>13.39890001470088</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>37.0366734599458</v>
+        <v>41.68810687093961</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.28515343528044</v>
+        <v>64.15365250518437</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>42.00123984854267</v>
+        <v>72.24622111604667</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>32.53957305322739</v>
+        <v>48.70362885791472</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>34.26590819738084</v>
+        <v>56.36382888096199</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>30.43121580480244</v>
+        <v>12.4433259354059</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>37.03772527280076</v>
+        <v>41.51486332743421</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>40.28622069934912</v>
+        <v>64.88276616154084</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>42.00230134931019</v>
+        <v>72.93225433703365</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>32.54066887752808</v>
+        <v>37.6479170976563</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>34.26700575161178</v>
+        <v>47.08579744718138</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.43225699447457</v>
+        <v>8.728764614346371</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>37.03878274077132</v>
+        <v>35.75086781028968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.28731567276709</v>
+        <v>53.55897157696538</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.00339803816155</v>
+        <v>63.42503472226167</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>21.66054701852065</v>
+        <v>-13.73708587472327</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.23780630071246</v>
+        <v>4.404647476644165</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.37493611869609</v>
+        <v>15.46832089533516</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>33.06134730976979</v>
+        <v>21.36546463873802</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>23.59914254444931</v>
+        <v>-8.949702909170053</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.20857129101895</v>
+        <v>8.911288412360911</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.65970229223657</v>
+        <v>-5.155574416939142</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.23698006013964</v>
+        <v>16.28235476623368</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>31.37409157835283</v>
+        <v>33.832499001119</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.06051002622853</v>
+        <v>38.2061372561902</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>23.59829831603649</v>
+        <v>3.920278068514847</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>30.20774562463121</v>
+        <v>25.17246905662919</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>21.6607939133772</v>
+        <v>-7.992557815151553</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.23805535755657</v>
+        <v>14.21894877806598</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.37518263573784</v>
+        <v>32.66645973666233</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.06159543828704</v>
+        <v>37.01092077589374</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.59939139698767</v>
+        <v>1.410333656509675</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>30.20882230369097</v>
+        <v>23.45209112358044</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>21.66181795305853</v>
+        <v>-8.055825493083894</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.23909559517829</v>
+        <v>12.17541697860183</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>31.37626018211578</v>
+        <v>25.37552700732381</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>33.06267466406459</v>
+        <v>31.4005434274532</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>23.60042645317209</v>
+        <v>-1.749518197514274</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.20987365115734</v>
+        <v>18.24592579482909</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.36905408503085</v>
+        <v>18.05529240327992</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.08163351306729</v>
+        <v>28.69866094696028</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>31.1981106629533</v>
+        <v>-6.595267848081232</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>37.72994219434322</v>
+        <v>15.21116269875308</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>41.00387133907389</v>
+        <v>30.29460761896266</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>42.70641008915169</v>
+        <v>41.35187474405663</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>33.36821001363819</v>
+        <v>40.78246411194587</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.08079679839281</v>
+        <v>49.91620828237875</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>31.19730747472644</v>
+        <v>10.221664681611</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>37.72915737945602</v>
+        <v>35.40878139886638</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.00306881546835</v>
+        <v>57.1816165098773</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>42.705614878243</v>
+        <v>66.65914758769081</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.36930252576031</v>
+        <v>39.8877010186083</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>35.08188358459488</v>
+        <v>49.00631542864686</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>31.19836600958105</v>
+        <v>9.309282461839018</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>37.7301996910831</v>
+        <v>35.27791371800021</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>41.0041263897404</v>
+        <v>57.92716365479794</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>42.70666673969766</v>
+        <v>67.36481251772416</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.37039141337059</v>
+        <v>29.30531575874349</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.08297418779264</v>
+        <v>40.15317453967023</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>31.1994003875081</v>
+        <v>5.829667566149578</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>37.73125013948064</v>
+        <v>29.79605593553483</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>41.00521427798238</v>
+        <v>46.97749372116985</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>42.70775632992642</v>
+        <v>58.18301758764183</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>14.72290959445708</v>
+        <v>-5.297720107863004</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>21.5272958799182</v>
+        <v>13.5004923673407</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.71043565946341</v>
+        <v>25.95430980485555</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.4470234656308</v>
+        <v>31.83398656865277</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.70686962277607</v>
+        <v>-3.591627328694955</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.54450503009955</v>
+        <v>14.87426610825873</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>14.72201497493866</v>
+        <v>3.92371427273893</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.52642035634383</v>
+        <v>26.04765490328694</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>24.70954108388496</v>
+        <v>45.04820333109535</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.44613638754</v>
+        <v>49.3910936765952</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>16.70597546304348</v>
+        <v>9.813187043826581</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.54363004518296</v>
+        <v>31.69805940794949</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>14.72316328063203</v>
+        <v>1.38303721031231</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.52755178487078</v>
+        <v>24.28877169620392</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.7106889729394</v>
+        <v>44.19464843384483</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.44727845331662</v>
+        <v>48.50519835785295</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>16.7071253307206</v>
+        <v>7.596844646755855</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.54476295495638</v>
+        <v>30.2793027640344</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>14.72420857813584</v>
+        <v>1.335968146702204</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.52861386814538</v>
+        <v>22.24731784098955</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.71178944329848</v>
+        <v>36.87015467236996</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.4483806282845</v>
+        <v>42.86943416462285</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.70818196909567</v>
+        <v>4.54095154993016</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.54583647561952</v>
+        <v>25.16401599245972</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.75159298057769</v>
+        <v>25.47524508966951</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.51514246591944</v>
+        <v>36.10426868846278</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.738516200022</v>
+        <v>-2.616551162089454</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.49576645710091</v>
+        <v>19.82097408470769</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>34.82166649796289</v>
+        <v>36.35954986544112</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.5750712880748</v>
+        <v>47.38735502286428</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.75069883559603</v>
+        <v>48.82602957172031</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.51425592143198</v>
+        <v>57.93123418715815</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.73766511541903</v>
+        <v>14.70692657432053</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.49493435215214</v>
+        <v>40.5525017986274</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>34.82081596077663</v>
+        <v>63.84135564299575</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.57422830639162</v>
+        <v>73.27483509411306</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.75184828110158</v>
+        <v>48.24085688934937</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.51539946071437</v>
+        <v>57.32755623260456</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.73877870596676</v>
+        <v>14.0927922804036</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>31.49603116992419</v>
+        <v>40.72770665580147</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.82192871686297</v>
+        <v>64.90112345363144</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.57533516925963</v>
+        <v>74.2913222486616</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.75296042650269</v>
+        <v>37.71373651130625</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.51651334788544</v>
+        <v>48.53877392207045</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>24.73983490205011</v>
+        <v>10.74672015395111</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>31.49710401935868</v>
+        <v>35.36685171415505</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>34.82304008772123</v>
+        <v>54.03764529265727</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.57644826849403</v>
+        <v>65.20489433114791</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>23.34112468256286</v>
+        <v>4.167017813632626</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.00283162298514</v>
+        <v>25.16662705320245</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>33.18567830341578</v>
+        <v>38.0559937747278</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>34.89186084633377</v>
+        <v>42.34089907648129</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.29999375075106</v>
+        <v>3.011705270625725</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.99425946011487</v>
+        <v>23.66410779242367</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>23.3402742572431</v>
+        <v>12.32851820595169</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>30.00199993330066</v>
+        <v>36.65068876192248</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>33.1848281031393</v>
+        <v>56.09010516032403</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>34.89101797152463</v>
+        <v>58.81924721892651</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.29914384451973</v>
+        <v>15.32638900338693</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.99342836685737</v>
+        <v>39.39484660971613</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.34137309164234</v>
+        <v>9.436899322859439</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>30.00308222638595</v>
+        <v>34.53177327416788</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>33.18592631156037</v>
+        <v>54.87849160466983</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.89211047413369</v>
+        <v>57.57501566770875</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.30024415144359</v>
+        <v>12.76925076776439</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.99451205327279</v>
+        <v>37.626370005718</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.34241339388162</v>
+        <v>9.865246256514229</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.00413892145129</v>
+        <v>32.97709821033439</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>33.18702078608982</v>
+        <v>48.04651309798736</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.89320666183391</v>
+        <v>52.43412257477172</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.30129557260505</v>
+        <v>10.19419475741002</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.9955799616315</v>
+        <v>33.00337547908565</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>35.20089454363874</v>
+        <v>34.67268195481076</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.9334684783751</v>
+        <v>43.58893885993781</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>32.96783255253222</v>
+        <v>3.706347900714348</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>39.58347013161943</v>
+        <v>28.31151102198742</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>42.90498738417998</v>
+        <v>45.16087273241453</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.62734091465953</v>
+        <v>54.51698590957756</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>35.20004483389101</v>
+        <v>56.93377061481006</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.93262619475383</v>
+        <v>64.30745763378123</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>32.96702416183167</v>
+        <v>19.89287596974393</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>39.5826803627297</v>
+        <v>47.90389262568027</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>42.9041797041156</v>
+        <v>71.50640802531839</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>44.62654061624239</v>
+        <v>79.2492128259014</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>35.2011445092018</v>
+        <v>56.00094753772586</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>36.9337200830007</v>
+        <v>63.35607288600906</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>32.96808956303482</v>
+        <v>18.92671463461695</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>39.58372932443761</v>
+        <v>47.71837611630758</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>42.90524407715186</v>
+        <v>72.20793191956156</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>44.62759921550303</v>
+        <v>79.90718410734294</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>35.20225043146715</v>
+        <v>45.97122334336602</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>36.93482775499534</v>
+        <v>55.06555806896931</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>32.96914021419202</v>
+        <v>16.10945678281527</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>39.58479623900875</v>
+        <v>42.89725909721477</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>42.90634890411668</v>
+        <v>61.89017155228049</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>44.6287057780107</v>
+        <v>71.36742978856682</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>21.81778014004194</v>
+        <v>-1.949518104140346</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>28.47880751140261</v>
+        <v>19.39449403294737</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>31.6125211842167</v>
+        <v>31.24446864686461</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>33.31625803951086</v>
+        <v>35.97893277069485</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>23.76567626873846</v>
+        <v>-4.532629662084098</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>30.45918174920123</v>
+        <v>16.44379091349775</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>21.81692669164223</v>
+        <v>7.355110324379101</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>28.47797276443463</v>
+        <v>32.06822999993598</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>31.61166792542345</v>
+        <v>50.52210470492487</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>33.31541210877847</v>
+        <v>53.67595616030788</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>23.76482329588721</v>
+        <v>8.913334778038422</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>30.45834755485161</v>
+        <v>33.35405777564246</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>21.81802775169148</v>
+        <v>4.591917499592622</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>28.47905730227011</v>
+        <v>30.08023806108703</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>31.61276841415653</v>
+        <v>49.45592934686243</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.31650689013733</v>
+        <v>52.57709956277681</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>23.76592585238745</v>
+        <v>6.471601327132269</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>30.45943351019244</v>
+        <v>31.7037528922507</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>21.81906266604789</v>
+        <v>3.956215397584476</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>28.48010863999683</v>
+        <v>27.4173990309012</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>31.61385725874461</v>
+        <v>41.46299812575491</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>33.31759743223913</v>
+        <v>46.31223166062892</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.76697186792442</v>
+        <v>2.802209875211226</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>30.46049604332508</v>
+        <v>25.94058094563994</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>33.61678016461235</v>
+        <v>26.56643393183064</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>35.34678436476588</v>
+        <v>35.88094771820122</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>31.44338844192007</v>
+        <v>-4.638484383427848</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>38.05798541102003</v>
+        <v>20.29031467085123</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>41.33167524778418</v>
+        <v>36.31171065746464</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>43.05144234627538</v>
+        <v>46.10624167989864</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>33.61592735264432</v>
+        <v>50.06246262028954</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>35.3459389812387</v>
+        <v>57.80809775686141</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>31.44257691674557</v>
+        <v>12.66583169435725</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.05719247274897</v>
+        <v>41.04865572579679</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>41.33086439823908</v>
+        <v>63.88215881615272</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>43.05063888073789</v>
+        <v>72.0370307389947</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>33.61702933216804</v>
+        <v>49.26088463635385</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.34703517245416</v>
+        <v>56.98842110203884</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>31.44364459974537</v>
+        <v>11.81882352865978</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>38.05824373618168</v>
+        <v>40.98498111440497</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>41.33193110618099</v>
+        <v>64.71939696745829</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>43.0516998137572</v>
+        <v>72.83103114739919</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>33.61812960702933</v>
+        <v>38.0354486736103</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.34813718099301</v>
+        <v>47.54108215386604</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>31.44468995778202</v>
+        <v>7.923544786004626</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>38.05930538704827</v>
+        <v>35.04009212507985</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>41.33303040282529</v>
+        <v>53.22009513622481</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.05280082970478</v>
+        <v>63.14875529206689</v>
       </c>
     </row>
   </sheetData>
